--- a/files/обновленный_файл.xlsx
+++ b/files/обновленный_файл.xlsx
@@ -5197,12 +5197,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5219,14 +5219,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -5236,50 +5228,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5301,15 +5249,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5347,11 +5333,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5364,7 +5357,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5379,13 +5372,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5397,13 +5444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5421,67 +5468,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5499,13 +5498,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5517,19 +5522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5547,19 +5540,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5580,30 +5573,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5656,6 +5625,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5670,151 +5654,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6170,7 +6163,7 @@
   <dimension ref="A1:C575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -12507,9 +12500,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://disk.yandex.ru/client/disk/Значки%20ANIKOYA%20%2002%2023/03%20-%20POSUTA%20(плакаты)/Валерия/14+%20продолжение/POSTER-14+PRODOLZHENIE-GLOSS-3"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://disk.yandex.ru/client/disk/Значки%20ANIKOYA%20%2002%2023/03%20-%20POSUTA%20(плакаты)/Валерия/14+%20продолжение/POSTER-14+PRODOLZHENIE-MAT-3"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://disk.yandex.ru/client/disk/Значки%20ANIKOYA%20%2002%2023/03%20-%20POSUTA%20(плакаты)/Валерия/14+%20продолжение/POSTER-14+PRODOLZHENIEKISS-MAT-3"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://disk.yandex.ru/client/disk/Значки%20ANIKOYA%20%2002%2023/03%20-%20POSUTA%20(плакаты)/Валерия/14+%20продолжение/POSTER-14+PRODOLZHENIE-GLOSS-3" tooltip="https://disk.yandex.ru/client/disk/Значки%20ANIKOYA%20%2002%2023/03%20-%20POSUTA%20(плакаты)/Валерия/14+%20продолжение/POSTER-14+PRODOLZHENIE-GLOSS-3"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://disk.yandex.ru/client/disk/Значки%20ANIKOYA%20%2002%2023/03%20-%20POSUTA%20(плакаты)/Валерия/14+%20продолжение/POSTER-14+PRODOLZHENIE-MAT-3" tooltip="https://disk.yandex.ru/client/disk/Значки%20ANIKOYA%20%2002%2023/03%20-%20POSUTA%20(плакаты)/Валерия/14+%20продолжение/POSTER-14+PRODOLZHENIE-MAT-3"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://disk.yandex.ru/client/disk/Значки%20ANIKOYA%20%2002%2023/03%20-%20POSUTA%20(плакаты)/Валерия/14+%20продолжение/POSTER-14+PRODOLZHENIEKISS-MAT-3" tooltip="https://disk.yandex.ru/client/disk/Значки%20ANIKOYA%20%2002%2023/03%20-%20POSUTA%20(плакаты)/Валерия/14+%20продолжение/POSTER-14+PRODOLZHENIEKISS-MAT-3"/>
     <hyperlink ref="C5" r:id="rId4" display="https://disk.yandex.ru/client/disk/Значки%20ANIKOYA%20%2002%2023/03%20-%20POSUTA%20(плакаты)/Валерия/90-е/POSTER-NINETIES-GLOSS"/>
     <hyperlink ref="C6" r:id="rId5" display="https://disk.yandex.ru/client/disk/Значки%20ANIKOYA%20%2002%2023/03%20-%20POSUTA%20(плакаты)/Валерия/90-е/POSTER-NINETIES-MAT"/>
     <hyperlink ref="C7" r:id="rId6" display="https://disk.yandex.ru/client/disk/Значки%20ANIKOYA%20%2002%2023/03%20-%20POSUTA%20(плакаты)/Валерия/JOEY%20SLIPKNOT/POSTER-JORDISON-GLOSS-3"/>
